--- a/xlsx/貝南_intext.xlsx
+++ b/xlsx/貝南_intext.xlsx
@@ -29,7 +29,7 @@
     <t>贝南 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_貝南</t>
+    <t>体育运动_体育运动_南非_貝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%AF%A7%E5%9C%8B%E6%97%97</t>
